--- a/Domik.xlsx
+++ b/Domik.xlsx
@@ -157,34 +157,40 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>168519</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129328</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5313</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="336550" y="1797050"/>
-          <a:ext cx="2838450" cy="1428750"/>
+          <a:off x="622788" y="2110153"/>
+          <a:ext cx="2686425" cy="1324160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -196,33 +202,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:colOff>51288</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>578827</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95689</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8553450" y="95250"/>
-          <a:ext cx="1155700" cy="2787650"/>
+          <a:off x="8162192" y="0"/>
+          <a:ext cx="1743808" cy="3143689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -523,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
